--- a/cogMould/html/混合模板(4个选项)/混合模板.xlsx
+++ b/cogMould/html/混合模板(4个选项)/混合模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18001\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhouyingyu\project\mould\cogMould\html\混合模板(4个选项)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0ACA3-1C3D-4AEC-AF37-2DCBFE6134C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEE0357-9FE5-4A05-B2E2-1C1F2631F4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -855,13 +855,13 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
     <col min="5" max="5" width="2.9140625" style="1" bestFit="1" customWidth="1"/>
